--- a/artfynd/A 51645-2019.xlsx
+++ b/artfynd/A 51645-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,6 +1585,139 @@
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112486937</v>
+      </c>
+      <c r="B9" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Hyltåkra, Sm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>428634</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6274071</v>
+      </c>
+      <c r="S9" t="n">
+        <v>18</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Kronoberg</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Ljungby</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Hamneda</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>G-Lju-1389</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>1 blomställning. Rullstensås. Växer på åsens norra slänt. Olikåldrig barrskog. Tallarna säkert 150 år gamla, granarna något yngre (50 - 100 år).</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Krister Wahlström</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Krister Wahlström</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 51645-2019.xlsx
+++ b/artfynd/A 51645-2019.xlsx
@@ -1590,7 +1590,7 @@
         <v>112486937</v>
       </c>
       <c r="B9" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
